--- a/Files/Madden24/IE/Season1/ExpectedSalary.xlsx
+++ b/Files/Madden24/IE/Season1/ExpectedSalary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/maddenstats/Files/Madden24/IE/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/maddenstats/Files/Madden24/IE/Season1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5879" documentId="13_ncr:1_{ADED6FFD-BF9D-425E-B0E9-69FF67D7C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40BD4F5-1327-468E-8E10-D01A20DC2301}"/>
+  <xr:revisionPtr revIDLastSave="5885" documentId="13_ncr:1_{ADED6FFD-BF9D-425E-B0E9-69FF67D7C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F53D1F6-3E85-4074-933D-6200727B05AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22452" yWindow="588" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="24" r:id="rId1"/>
@@ -160,6 +160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,7 +491,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -559,7 +563,7 @@
         <v>67</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1550,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="B76" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>99</v>
@@ -1564,10 +1568,10 @@
         <v>15</v>
       </c>
       <c r="B77" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C77">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -1581,7 +1585,7 @@
         <v>80</v>
       </c>
       <c r="C78">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D78">
         <v>3</v>
